--- a/Order Budget.xlsx
+++ b/Order Budget.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cole\Documents\Fall 2018\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6F54BA-AE96-4235-BFC2-8D7006BB7E9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>Item</t>
   </si>
@@ -165,12 +166,24 @@
   </si>
   <si>
     <t>Vendor Total</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Aluminum Flat ( Thickness)</t>
+  </si>
+  <si>
+    <t>Aluminum fo Gear box (</t>
+  </si>
+  <si>
+    <t>Steel (Roller Hub)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -199,18 +212,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -246,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -257,12 +281,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,21 +290,12 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -296,8 +305,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -613,768 +681,818 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="13">
         <v>33</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="12">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="13">
         <f>C3*D3</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="13">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="7">
-        <f t="shared" ref="E4:E6" si="0">C4*D4</f>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E9" si="0">C4*D4</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C8" s="13">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D8" s="12">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="F8" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C9" s="16">
         <v>100</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E9" s="16">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7">
-        <f>SUM(E3:E6)</f>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5">
+        <f>SUM(E3:E9)</f>
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C13" s="19">
         <v>11.55</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D13" s="18">
         <v>3</v>
       </c>
-      <c r="E10" s="10">
-        <f>C10*D10</f>
+      <c r="E13" s="19">
+        <f>C13*D13</f>
         <v>34.650000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="9" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7">
+      <c r="D14" s="8"/>
+      <c r="E14" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7">
-        <f>SUM(E10:E11)</f>
+      <c r="D15" s="8"/>
+      <c r="E15" s="5">
+        <f>SUM(E13:E14)</f>
         <v>43.650000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C17" s="22">
         <v>12.99</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D17" s="20">
         <v>2</v>
       </c>
-      <c r="E14" s="7">
-        <f t="shared" ref="E14:E16" si="1">C14*D14</f>
+      <c r="E17" s="23">
+        <f t="shared" ref="E17:E19" si="1">C17*D17</f>
         <v>25.98</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C18" s="23">
         <v>39.99</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D18" s="21">
         <v>2</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E18" s="23">
         <f t="shared" si="1"/>
         <v>79.98</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C19" s="16">
         <v>39.99</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D19" s="15">
         <v>2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E19" s="16">
         <f t="shared" si="1"/>
         <v>79.98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7">
+      <c r="D20" s="8"/>
+      <c r="E20" s="5">
         <v>6.99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="9" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7">
-        <f>SUM(E14:E17)</f>
+      <c r="D21" s="8"/>
+      <c r="E21" s="5">
+        <f>SUM(E17:E20)</f>
         <v>192.93</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B23" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C23" s="25">
         <v>69.989999999999995</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D23" s="24">
         <v>2</v>
       </c>
-      <c r="E20" s="10">
-        <f>C20*D20</f>
+      <c r="E23" s="25">
+        <f>C23*D23</f>
         <v>139.97999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="9" t="s">
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="7">
+      <c r="D24" s="8"/>
+      <c r="E24" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="9" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7">
-        <f>SUM(E19:E21)</f>
+      <c r="D25" s="8"/>
+      <c r="E25" s="5">
+        <f>SUM(E22:E24)</f>
         <v>139.97999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B27" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C27" s="30">
         <v>3.03</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D27" s="29">
         <v>6</v>
       </c>
-      <c r="E24" s="7">
-        <f t="shared" ref="E24:E25" si="2">C24*D24</f>
+      <c r="E27" s="30">
+        <f t="shared" ref="E27:E28" si="2">C27*D27</f>
         <v>18.18</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B28" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C28" s="33">
         <v>4.87</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D28" s="32">
         <v>4</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E28" s="33">
         <f t="shared" si="2"/>
         <v>19.48</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="9" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="7">
+      <c r="D29" s="8"/>
+      <c r="E29" s="5">
         <v>14.15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="9" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="7">
-        <f>SUM(E24:E26)</f>
+      <c r="D30" s="8"/>
+      <c r="E30" s="5">
+        <f>SUM(E27:E29)</f>
         <v>51.809999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B32" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C32" s="25">
         <v>10</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D32" s="24">
         <v>1</v>
       </c>
-      <c r="E29" s="10">
-        <f t="shared" ref="E29" si="3">C29*D29</f>
+      <c r="E32" s="25">
+        <f t="shared" ref="E32" si="3">C32*D32</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="9" t="s">
+      <c r="F32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="7">
+      <c r="D33" s="8"/>
+      <c r="E33" s="5">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="9" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="7">
-        <f>SUM(E29:E30)</f>
+      <c r="D34" s="8"/>
+      <c r="E34" s="5">
+        <f>SUM(E32:E33)</f>
         <v>14.15</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B36" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C36" s="13">
         <v>8.4499999999999993</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D36" s="12">
         <v>1</v>
       </c>
-      <c r="E33" s="7">
-        <f t="shared" ref="E33:E34" si="4">C33*D33</f>
+      <c r="E36" s="13">
+        <f t="shared" ref="E36:E37" si="4">C36*D36</f>
         <v>8.4499999999999993</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="F36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B37" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C37" s="28">
         <v>7.99</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D37" s="27">
         <v>1</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E37" s="28">
         <f t="shared" si="4"/>
         <v>7.99</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="9" t="s">
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="7">
+      <c r="D38" s="8"/>
+      <c r="E38" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="9" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="7">
-        <f>SUM(E33:E35)</f>
+      <c r="D39" s="8"/>
+      <c r="E39" s="5">
+        <f>SUM(E36:E38)</f>
         <v>16.439999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C41" s="5">
         <v>11.73</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D41" s="2">
         <v>1</v>
       </c>
-      <c r="E38" s="7">
-        <f t="shared" ref="E38:E49" si="5">C38*D38</f>
+      <c r="E41" s="5">
+        <f t="shared" ref="E41:E52" si="5">C41*D41</f>
         <v>11.73</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C42" s="5">
         <v>15.89</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D42" s="2">
         <v>4</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E42" s="5">
         <f t="shared" si="5"/>
         <v>63.56</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C43" s="5">
         <v>7.46</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D43" s="2">
         <v>1</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E43" s="5">
         <f t="shared" si="5"/>
         <v>7.46</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C44" s="5">
         <v>17.670000000000002</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D44" s="2">
         <v>4</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E44" s="5">
         <f t="shared" si="5"/>
         <v>70.680000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C45" s="5">
         <v>21.55</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D45" s="2">
         <v>2</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E45" s="5">
         <f t="shared" si="5"/>
         <v>43.1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C46" s="5">
         <v>3.97</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D46" s="2">
         <v>2</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E46" s="5">
         <f t="shared" si="5"/>
         <v>7.94</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C47" s="5">
         <v>1.72</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D47" s="2">
         <v>12</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E47" s="5">
         <f t="shared" si="5"/>
         <v>20.64</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C48" s="5">
         <v>5.66</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D48" s="2">
         <v>2</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E48" s="5">
         <f t="shared" si="5"/>
         <v>11.32</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C49" s="5">
         <v>2.85</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D49" s="2">
         <v>1</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E49" s="5">
         <f t="shared" si="5"/>
         <v>2.85</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C50" s="5">
         <v>8.3800000000000008</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D50" s="2">
         <v>1</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E50" s="5">
         <f t="shared" si="5"/>
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C51" s="5">
         <v>4.28</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D51" s="2">
         <v>1</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E51" s="5">
         <f t="shared" si="5"/>
         <v>4.28</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C52" s="6">
         <v>6.13</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D52" s="3">
         <v>2</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E52" s="6">
         <f t="shared" si="5"/>
         <v>12.26</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="9" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="7" t="s">
+      <c r="D53" s="8"/>
+      <c r="E53" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="9" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="7">
-        <f>SUM(E38:E50)</f>
+      <c r="D54" s="8"/>
+      <c r="E54" s="5">
+        <f>SUM(E41:E53)</f>
         <v>264.2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="9" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="7">
-        <f>E51+E36+E31+E27+E22+E18+E12+E7</f>
+      <c r="D56" s="8"/>
+      <c r="E56" s="5">
+        <f>E54+E39+E34+E30+E25+E21+E15+E10</f>
         <v>869.16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="9" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="7">
+      <c r="D57" s="8"/>
+      <c r="E57" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="9" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="7">
-        <f>E54-E53</f>
+      <c r="D58" s="8"/>
+      <c r="E58" s="5">
+        <f>E57-E56</f>
         <v>130.84000000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C56:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Order Budget.xlsx
+++ b/Order Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cole\Documents\Fall 2018\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6F54BA-AE96-4235-BFC2-8D7006BB7E9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF741647-E494-4CCE-88C6-9C9AD23C51EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>Item</t>
   </si>
@@ -141,9 +141,6 @@
     <t>7887K88 - MXL Series Timing Belt</t>
   </si>
   <si>
-    <t>7887K22 - MXL Series Timing Belt</t>
-  </si>
-  <si>
     <t>92095A182 - Button Head Hex Drive Screw - 100 pack</t>
   </si>
   <si>
@@ -178,6 +175,51 @@
   </si>
   <si>
     <t>Steel (Roller Hub)</t>
+  </si>
+  <si>
+    <t>7887K82 - MXL Series Timing Belt</t>
+  </si>
+  <si>
+    <t>4.24 center</t>
+  </si>
+  <si>
+    <t>Motors</t>
+  </si>
+  <si>
+    <t>Bolts /screws</t>
+  </si>
+  <si>
+    <t>Armor (Screw)</t>
+  </si>
+  <si>
+    <t>Gearboxes (Bolt/Nut)</t>
+  </si>
+  <si>
+    <t>8 x 1.5"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronic Mount </t>
+  </si>
+  <si>
+    <t>Bearings (Bolt/Nut)</t>
+  </si>
+  <si>
+    <t>8 x .5"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 x &gt;.5" </t>
+  </si>
+  <si>
+    <t>4&gt;.625"</t>
+  </si>
+  <si>
+    <t>Roller mount</t>
+  </si>
+  <si>
+    <t>2 x &gt;.25"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 x </t>
   </si>
 </sst>
 </file>
@@ -293,6 +335,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,68 +408,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -682,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,129 +757,129 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="9">
         <v>33</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="9">
         <f>C3*D3</f>
         <v>33</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>47</v>
+      <c r="F3" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <v>7</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="9">
         <f t="shared" ref="E4:E9" si="0">C4*D4</f>
         <v>7</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="23"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="9">
         <v>6</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>47</v>
+      <c r="F8" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="12">
         <v>100</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>1</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="8"/>
+      <c r="C10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="30"/>
       <c r="E10" s="5">
         <f>SUM(E3:E9)</f>
         <v>146</v>
@@ -851,46 +893,46 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="15">
         <v>11.55</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="14">
         <v>3</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="15">
         <f>C13*D13</f>
         <v>34.650000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="8"/>
+      <c r="C15" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="30"/>
       <c r="E15" s="5">
         <f>SUM(E13:E14)</f>
         <v>43.650000000000006</v>
@@ -904,73 +946,73 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="18">
         <v>12.99</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="16">
         <v>2</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="19">
         <f t="shared" ref="E17:E19" si="1">C17*D17</f>
         <v>25.98</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="19">
         <v>39.99</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="17">
         <v>2</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="19">
         <f t="shared" si="1"/>
         <v>79.98</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="12">
         <v>39.99</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="11">
         <v>2</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="12">
         <f t="shared" si="1"/>
         <v>79.98</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="5">
         <v>6.99</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="8"/>
+      <c r="C21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="30"/>
       <c r="E21" s="5">
         <f>SUM(E17:E20)</f>
         <v>192.93</v>
@@ -984,40 +1026,40 @@
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="21">
         <v>69.989999999999995</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="20">
         <v>2</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="21">
         <f>C23*D23</f>
         <v>139.97999999999999</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="8"/>
+      <c r="C25" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="30"/>
       <c r="E25" s="5">
         <f>SUM(E22:E24)</f>
         <v>139.97999999999999</v>
@@ -1031,55 +1073,55 @@
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="26">
         <v>3.03</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="25">
         <v>6</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="26">
         <f t="shared" ref="E27:E28" si="2">C27*D27</f>
         <v>18.18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="29">
         <v>4.87</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="28">
         <v>4</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="29">
         <f t="shared" si="2"/>
         <v>19.48</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="5">
         <v>14.15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="8"/>
+      <c r="C30" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="30"/>
       <c r="E30" s="5">
         <f>SUM(E27:E29)</f>
         <v>51.809999999999995</v>
@@ -1093,40 +1135,40 @@
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="21">
         <v>10</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="20">
         <v>1</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="21">
         <f t="shared" ref="E32" si="3">C32*D32</f>
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="5">
         <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="8"/>
+      <c r="C34" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="30"/>
       <c r="E34" s="5">
         <f>SUM(E32:E33)</f>
         <v>14.15</v>
@@ -1140,61 +1182,61 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="9">
         <v>8.4499999999999993</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="9">
         <f t="shared" ref="E36:E37" si="4">C36*D36</f>
         <v>8.4499999999999993</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="24">
         <v>7.99</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="23">
         <v>1</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="24">
         <f t="shared" si="4"/>
         <v>7.99</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="8"/>
+      <c r="C39" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="30"/>
       <c r="E39" s="5">
         <f>SUM(E36:E38)</f>
         <v>16.439999999999998</v>
@@ -1351,9 +1393,9 @@
         <v>11.32</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>30</v>
@@ -1368,10 +1410,13 @@
         <f t="shared" si="5"/>
         <v>2.85</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>30</v>
@@ -1387,9 +1432,9 @@
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>30</v>
@@ -1405,9 +1450,9 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>30</v>
@@ -1423,56 +1468,119 @@
         <v>12.26</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="8" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="8"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="8"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="30"/>
       <c r="E54" s="5">
         <f>SUM(E41:E53)</f>
         <v>264.2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="8"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="30"/>
       <c r="E56" s="5">
         <f>E54+E39+E34+E30+E25+E21+E15+E10</f>
         <v>869.16</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="8"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="30"/>
       <c r="E57" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="8"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="30"/>
       <c r="E58" s="5">
         <f>E57-E56</f>
         <v>130.84000000000003</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C56:D56"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C14:D14"/>
@@ -1483,16 +1591,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C56:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Order Budget.xlsx
+++ b/Order Budget.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cole\Documents\Fall 2018\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF741647-E494-4CCE-88C6-9C9AD23C51EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>Item</t>
   </si>
@@ -126,9 +125,6 @@
     <t>1254N21 - MXL Series Lightweight Timing Belt Pulley</t>
   </si>
   <si>
-    <t>1434k600 - Mounted Roller Bearing with Two-Bolt Flange</t>
-  </si>
-  <si>
     <t>6832k44 - Metal Gear - 20 Degree Pressure Angle</t>
   </si>
   <si>
@@ -141,12 +137,6 @@
     <t>7887K88 - MXL Series Timing Belt</t>
   </si>
   <si>
-    <t>92095A182 - Button Head Hex Drive Screw - 100 pack</t>
-  </si>
-  <si>
-    <t>92095A203 - Button Head Hex Drive Screw - 25 pack</t>
-  </si>
-  <si>
     <t>99437A135 - Zinc-Plated Steel Press-Fit Nut for Sheet Metal - 10 pack</t>
   </si>
   <si>
@@ -220,12 +210,24 @@
   </si>
   <si>
     <t xml:space="preserve">12 x </t>
+  </si>
+  <si>
+    <t>Subject to change</t>
+  </si>
+  <si>
+    <t>5912K150_OIL-EMBEDDED MOUNTED SLEEVE BEARING</t>
+  </si>
+  <si>
+    <t>98585A109 - Heavy Duty External Retaining Ring - 10pack</t>
+  </si>
+  <si>
+    <t>7421K4 - Ultra-Low-Friction Oil-Embedded Thrust Bearing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -397,9 +399,6 @@
     <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,6 +406,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,11 +725,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,13 +759,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -783,7 +785,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -804,12 +806,12 @@
         <v>7</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -819,7 +821,7 @@
     </row>
     <row r="6" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="19"/>
@@ -828,7 +830,7 @@
     </row>
     <row r="7" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="19"/>
@@ -853,7 +855,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -876,10 +878,10 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="30"/>
+      <c r="C10" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="33"/>
       <c r="E10" s="5">
         <f>SUM(E3:E9)</f>
         <v>146</v>
@@ -893,13 +895,13 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -920,19 +922,19 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="30"/>
+      <c r="C15" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="33"/>
       <c r="E15" s="5">
         <f>SUM(E13:E14)</f>
         <v>43.650000000000006</v>
@@ -1000,19 +1002,19 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="30"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="5">
         <v>6.99</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="30"/>
+      <c r="C21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="33"/>
       <c r="E21" s="5">
         <f>SUM(E17:E20)</f>
         <v>192.93</v>
@@ -1043,23 +1045,23 @@
         <v>139.97999999999999</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="30"/>
+      <c r="C25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="33"/>
       <c r="E25" s="5">
         <f>SUM(E22:E24)</f>
         <v>139.97999999999999</v>
@@ -1109,19 +1111,19 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="30"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="5">
         <v>14.15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="30"/>
+      <c r="C30" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="33"/>
       <c r="E30" s="5">
         <f>SUM(E27:E29)</f>
         <v>51.809999999999995</v>
@@ -1152,23 +1154,23 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="5">
         <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="30"/>
+      <c r="C34" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="33"/>
       <c r="E34" s="5">
         <f>SUM(E32:E33)</f>
         <v>14.15</v>
@@ -1199,7 +1201,7 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1220,23 +1222,23 @@
         <v>7.99</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="30"/>
+      <c r="D38" s="33"/>
       <c r="E38" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="30"/>
+      <c r="C39" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="33"/>
       <c r="E39" s="5">
         <f>SUM(E36:E38)</f>
         <v>16.439999999999998</v>
@@ -1305,25 +1307,25 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="5">
-        <v>17.670000000000002</v>
+        <v>12.58</v>
       </c>
       <c r="D44" s="2">
         <v>4</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="5"/>
-        <v>70.680000000000007</v>
+        <v>50.32</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>30</v>
@@ -1341,118 +1343,118 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C46" s="5">
-        <v>3.97</v>
+        <v>2.25</v>
       </c>
       <c r="D46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="5"/>
-        <v>7.94</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="5">
-        <v>1.72</v>
+        <v>0.98</v>
       </c>
       <c r="D47" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="5"/>
-        <v>20.64</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="5">
-        <v>5.66</v>
+        <v>3.97</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="5"/>
-        <v>11.32</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C49" s="5">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="D49" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="5"/>
-        <v>2.85</v>
-      </c>
-      <c r="F49" t="s">
-        <v>51</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="5">
-        <v>8.3800000000000008</v>
+        <v>5.66</v>
       </c>
       <c r="D50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="5"/>
-        <v>8.3800000000000008</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="5">
-        <v>4.28</v>
+        <v>2.85</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="5"/>
-        <v>4.28</v>
+        <v>2.85</v>
+      </c>
+      <c r="F51" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>30</v>
@@ -1467,110 +1469,117 @@
         <f t="shared" si="5"/>
         <v>12.26</v>
       </c>
+      <c r="F52" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="30"/>
+      <c r="D53" s="33"/>
       <c r="E53" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="30"/>
+      <c r="C54" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="33"/>
       <c r="E54" s="5">
         <f>SUM(E41:E53)</f>
-        <v>264.2</v>
+        <v>235.38999999999996</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="30"/>
+      <c r="C56" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="33"/>
       <c r="E56" s="5">
         <f>E54+E39+E34+E30+E25+E21+E15+E10</f>
-        <v>869.16</v>
+        <v>840.35</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="30"/>
+      <c r="C57" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="33"/>
       <c r="E57" s="5">
         <v>1000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D58" s="30"/>
+      <c r="C58" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="33"/>
       <c r="E58" s="5">
         <f>E57-E56</f>
-        <v>130.84000000000003</v>
+        <v>159.64999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="C57:D57"/>
@@ -1587,10 +1596,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Order Budget.xlsx
+++ b/Order Budget.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cole\Documents\Fall 2018\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60969BC4-8838-486E-BC77-4EF4EB888ECE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
   <si>
     <t>Item</t>
   </si>
@@ -53,9 +54,6 @@
     <t>5/8" Hot Rolled Steel Rod, 3ft</t>
   </si>
   <si>
-    <t>10 Guage Steel Sheet, 2"x4"</t>
-  </si>
-  <si>
     <t>RobotShop</t>
   </si>
   <si>
@@ -65,9 +63,6 @@
     <t>Shipping Cost</t>
   </si>
   <si>
-    <t>118 RPM HD Premium Planetary Gear Motor</t>
-  </si>
-  <si>
     <t>ServoCity</t>
   </si>
   <si>
@@ -222,12 +217,24 @@
   </si>
   <si>
     <t>7421K4 - Ultra-Low-Friction Oil-Embedded Thrust Bearing</t>
+  </si>
+  <si>
+    <t>Home Depot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4" Plexi Glass </t>
+  </si>
+  <si>
+    <t>Scrap?</t>
+  </si>
+  <si>
+    <t>165 RPM HD Premium Planetary Gear Motor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -261,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +284,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,9 +347,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -351,19 +361,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -390,13 +388,46 @@
     <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -725,11 +756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,132 +790,136 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>33</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f>C3*D3</f>
         <v>33</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>43</v>
+      <c r="F3" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>7</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <f t="shared" ref="E4:E9" si="0">C4*D4</f>
         <v>7</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>6</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>43</v>
+      <c r="F8" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="12">
-        <v>100</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="A9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="11">
+        <v>60</v>
+      </c>
+      <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F9" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="33"/>
+      <c r="C10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="39"/>
       <c r="E10" s="5">
         <f>SUM(E3:E9)</f>
-        <v>146</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,46 +930,46 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="A12" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="15">
+      <c r="B13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="23">
         <v>11.55</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="22">
         <v>3</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="23">
         <f>C13*D13</f>
         <v>34.650000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="33"/>
+      <c r="C14" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="39"/>
       <c r="E14" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="33"/>
+      <c r="C15" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="39"/>
       <c r="E15" s="5">
         <f>SUM(E13:E14)</f>
         <v>43.650000000000006</v>
@@ -948,73 +983,73 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="A17" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="35">
         <v>12.99</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="34">
         <v>2</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="25">
         <f t="shared" ref="E17:E19" si="1">C17*D17</f>
         <v>25.98</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="19">
+      <c r="A18" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="25">
         <v>39.99</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="24">
         <v>2</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="25">
         <f t="shared" si="1"/>
         <v>79.98</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="A19" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="28">
         <v>39.99</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="27">
         <v>2</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="28">
         <f t="shared" si="1"/>
         <v>79.98</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="33"/>
+      <c r="C20" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="39"/>
       <c r="E20" s="5">
         <v>6.99</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="33"/>
+      <c r="C21" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="39"/>
       <c r="E21" s="5">
         <f>SUM(E17:E20)</f>
         <v>192.93</v>
@@ -1028,40 +1063,40 @@
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="21">
+      <c r="A23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="16">
         <v>69.989999999999995</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="15">
         <v>2</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="16">
         <f>C23*D23</f>
         <v>139.97999999999999</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="33"/>
+      <c r="C24" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="39"/>
       <c r="E24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="33"/>
+      <c r="C25" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="39"/>
       <c r="E25" s="5">
         <f>SUM(E22:E24)</f>
         <v>139.97999999999999</v>
@@ -1075,55 +1110,55 @@
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="26">
+      <c r="B27" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="30">
         <v>3.03</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="29">
         <v>6</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="30">
         <f t="shared" ref="E27:E28" si="2">C27*D27</f>
         <v>18.18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="29">
+      <c r="A28" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="33">
         <v>4.87</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="32">
         <v>4</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="33">
         <f t="shared" si="2"/>
         <v>19.48</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="33"/>
+      <c r="C29" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="39"/>
       <c r="E29" s="5">
         <v>14.15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="33"/>
+      <c r="C30" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="39"/>
       <c r="E30" s="5">
         <f>SUM(E27:E29)</f>
         <v>51.809999999999995</v>
@@ -1137,40 +1172,40 @@
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="21">
+      <c r="A32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="16">
         <v>10</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="15">
         <v>1</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="16">
         <f t="shared" ref="E32" si="3">C32*D32</f>
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="33"/>
+      <c r="C33" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="39"/>
       <c r="E33" s="5">
         <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="33"/>
+      <c r="C34" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="39"/>
       <c r="E34" s="5">
         <f>SUM(E32:E33)</f>
         <v>14.15</v>
@@ -1184,61 +1219,61 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="9">
+      <c r="A36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="8">
         <v>8.4499999999999993</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>1</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <f t="shared" ref="E36:E37" si="4">C36*D36</f>
         <v>8.4499999999999993</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="24">
+      <c r="B37" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="19">
         <v>7.99</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="18">
         <v>1</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="19">
         <f t="shared" si="4"/>
         <v>7.99</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="33"/>
+      <c r="C38" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="39"/>
       <c r="E38" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="33"/>
+      <c r="C39" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="39"/>
       <c r="E39" s="5">
         <f>SUM(E36:E38)</f>
         <v>16.439999999999998</v>
@@ -1252,326 +1287,326 @@
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="5">
+      <c r="A41" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="25">
         <v>11.73</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="24">
         <v>1</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="25">
         <f t="shared" ref="E41:E52" si="5">C41*D41</f>
         <v>11.73</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="5">
+      <c r="A42" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="25">
         <v>15.89</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="24">
         <v>4</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="25">
         <f t="shared" si="5"/>
         <v>63.56</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5">
+      <c r="B43" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="25">
         <v>7.46</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="24">
         <v>1</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="25">
         <f t="shared" si="5"/>
         <v>7.46</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="5">
+      <c r="A44" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="25">
         <v>12.58</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="24">
         <v>4</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="25">
         <f t="shared" si="5"/>
         <v>50.32</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="5">
+      <c r="A45" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="25">
         <v>21.55</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="24">
         <v>2</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="25">
         <f t="shared" si="5"/>
         <v>43.1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="5">
+      <c r="A46" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="25">
         <v>2.25</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="24">
         <v>1</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="25">
         <f t="shared" si="5"/>
         <v>2.25</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="5">
+      <c r="A47" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="25">
         <v>0.98</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="24">
         <v>2</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="25">
         <f t="shared" si="5"/>
         <v>1.96</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="5">
+      <c r="A48" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="25">
         <v>3.97</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="24">
         <v>2</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="25">
         <f t="shared" si="5"/>
         <v>7.94</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="5">
+      <c r="A49" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="21">
         <v>1.72</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="20">
         <v>12</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="21">
         <f t="shared" si="5"/>
         <v>20.64</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="5">
+      <c r="A50" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="25">
         <v>5.66</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="24">
         <v>2</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="25">
         <f t="shared" si="5"/>
         <v>11.32</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="5">
+      <c r="A51" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="25">
         <v>2.85</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="24">
         <v>1</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="25">
         <f t="shared" si="5"/>
         <v>2.85</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="6">
+      <c r="A52" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="28">
         <v>6.13</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="27">
         <v>2</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="28">
         <f t="shared" si="5"/>
         <v>12.26</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="33"/>
+      <c r="C53" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="39"/>
       <c r="E53" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="33"/>
+      <c r="C54" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="39"/>
       <c r="E54" s="5">
         <f>SUM(E41:E53)</f>
         <v>235.38999999999996</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="33"/>
+      <c r="C56" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="39"/>
       <c r="E56" s="5">
         <f>E54+E39+E34+E30+E25+E21+E15+E10</f>
-        <v>840.35</v>
+        <v>800.35</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="33"/>
+      <c r="C57" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="39"/>
       <c r="E57" s="5">
         <v>1000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="33"/>
+      <c r="C58" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="39"/>
       <c r="E58" s="5">
         <f>E57-E56</f>
-        <v>159.64999999999998</v>
+        <v>199.64999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
